--- a/biology/Zoologie/Dipsas_variegata/Dipsas_variegata.xlsx
+++ b/biology/Zoologie/Dipsas_variegata/Dipsas_variegata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas variegata  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas variegata  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil, en Bolivie, au Pérou, au Venezuela, au Guyana, en Suriname et en Guyane[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil, en Bolivie, au Pérou, au Venezuela, au Guyana, en Suriname et en Guyane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce  Dipsas variegata trinitatus[2] a été élevée au rang d'espèce par Harvey en 2008[3]. Dipsas neivai[4] a été relevé de sa synonymie avec Dipsas variegata par Porto et Fernandes en 1996[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce  Dipsas variegata trinitatus a été élevée au rang d'espèce par Harvey en 2008. Dipsas neivai a été relevé de sa synonymie avec Dipsas variegata par Porto et Fernandes en 1996.
 Le taxon Dipsas variegata Reinhardt, 1843 nec Duméril, Bibron &amp; Duméril, 1854 est un synonyme de Telescopus variegatus (Reinhardt, 1843).
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Première partie, p. 1-780 (texte intégral).</t>
         </is>
